--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\GF_X\AAAGameData\DataTables\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -180,6 +180,14 @@
   </si>
   <si>
     <t>UI组Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainMenu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,50 +740,50 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -789,16 +797,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -812,16 +820,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -830,61 +838,84 @@
         <v>2</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="H17" t="b">
+      <c r="H18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -188,6 +188,22 @@
   </si>
   <si>
     <t>MainMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史改装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择车辆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseVehicle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,73 +779,73 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -843,16 +859,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -861,24 +877,24 @@
         <v>2</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -888,34 +904,80 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="B17">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="H18" t="b">
+      <c r="H20" t="b">
         <v>0</v>
       </c>
     </row>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -204,6 +204,14 @@
   </si>
   <si>
     <t>ChooseVehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyGame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,50 +833,50 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -882,16 +890,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>21</v>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -905,16 +913,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -923,61 +931,84 @@
         <v>2</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="H20" t="b">
+      <c r="H21" t="b">
         <v>0</v>
       </c>
     </row>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -212,6 +212,14 @@
   </si>
   <si>
     <t>ModifyGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件详情清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyPartDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,34 +989,57 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>3</v>
       </c>
-      <c r="H21" t="b">
+      <c r="H22" t="b">
         <v>0</v>
       </c>
     </row>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -220,6 +220,29 @@
   </si>
   <si>
     <t>ModifyPartDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件数据对比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyPartComp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifySaved</t>
+  </si>
+  <si>
+    <t>改装保存成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameBackGround</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,6 +261,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -577,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -864,50 +888,50 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>900</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -921,16 +945,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>21</v>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -944,16 +968,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -962,84 +986,153 @@
         <v>2</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B21">
         <v>15</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B25">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H22" t="b">
+      <c r="H25" t="b">
         <v>0</v>
       </c>
     </row>

--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\DataTables\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\unity_project\vehicle_gfx\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A42DCB-0B71-420E-A5B2-63E4FDD90C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -249,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,9 +316,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,9 +356,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -895,7 +896,7 @@
         <v>56</v>
       </c>
       <c r="D14">
-        <v>900</v>
+        <v>-999</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>57</v>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1157,7 +1158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
